--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lefol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1C9ECE-616E-4390-BA30-082B8CBFD33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D942CDE-75A8-4191-8024-43A235E4F82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33705" yWindow="2160" windowWidth="21480" windowHeight="11385" xr2:uid="{C15FD5DF-C954-475E-8A04-E795A7D7DCDD}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,14 +462,14 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,14 +477,14 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" si="0">B3*C3</f>
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,14 +507,14 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lefol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D942CDE-75A8-4191-8024-43A235E4F82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404903CE-D8B7-4C16-A2D6-4568F39CF995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33705" yWindow="2160" windowWidth="21480" windowHeight="11385" xr2:uid="{C15FD5DF-C954-475E-8A04-E795A7D7DCDD}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,14 +477,14 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>7.56</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" si="0">B3*C3</f>
-        <v>7</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,11 +495,11 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,11 +510,11 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>18.900000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lefol\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lefol/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404903CE-D8B7-4C16-A2D6-4568F39CF995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC85D3E-CA0D-CE4D-986C-5B6CBD47C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33705" yWindow="2160" windowWidth="21480" windowHeight="11385" xr2:uid="{C15FD5DF-C954-475E-8A04-E795A7D7DCDD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C15FD5DF-C954-475E-8A04-E795A7D7DCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -438,12 +438,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -472,22 +472,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>7.56</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" si="0">B3*C3</f>
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -495,14 +495,14 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -510,14 +510,14 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>18.900000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -532,7 +532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lefol/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC85D3E-CA0D-CE4D-986C-5B6CBD47C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16695516-B842-4D4F-9DA7-B5EC95DC1052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C15FD5DF-C954-475E-8A04-E795A7D7DCDD}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -477,14 +477,14 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" si="0">B3*C3</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -507,14 +507,14 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -522,14 +522,14 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -537,14 +537,14 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
